--- a/outputs-HGR-r202/g__UBA1436.xlsx
+++ b/outputs-HGR-r202/g__UBA1436.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -465,6 +465,11 @@
           <t>prediction</t>
         </is>
       </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>rejection-f</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -489,6 +494,11 @@
           <t>s__UBA1436 sp002329395</t>
         </is>
       </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>s__UBA1436 sp002329395</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -513,6 +523,11 @@
           <t>s__UBA1436 sp900540405</t>
         </is>
       </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>s__UBA1436 sp900540405</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -533,6 +548,11 @@
         <v>0.9992173156910876</v>
       </c>
       <c r="F4" t="inlineStr">
+        <is>
+          <t>s__UBA1436 sp900541355</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
         <is>
           <t>s__UBA1436 sp900541355</t>
         </is>
